--- a/作业记录.xlsx
+++ b/作业记录.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="93">
   <si>
     <t>时间</t>
   </si>
@@ -307,6 +307,9 @@
   </si>
   <si>
     <t>11月9日前</t>
+  </si>
+  <si>
+    <t>书面作业3</t>
   </si>
 </sst>
 </file>
@@ -320,7 +323,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,13 +335,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -783,150 +779,150 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -937,9 +933,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1259,10 +1252,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:K44"/>
+  <dimension ref="B1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -2063,7 +2056,7 @@
       <c r="E36" t="s">
         <v>78</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F36" s="2" t="s">
         <v>79</v>
       </c>
       <c r="H36" t="s">
@@ -2083,7 +2076,7 @@
       <c r="E37" t="s">
         <v>80</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F37" s="2" t="s">
         <v>79</v>
       </c>
       <c r="H37" t="s">
@@ -2103,7 +2096,7 @@
       <c r="E38" t="s">
         <v>68</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F38" s="2" t="s">
         <v>79</v>
       </c>
       <c r="H38" t="s">
@@ -2211,7 +2204,7 @@
       <c r="E44" t="s">
         <v>89</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="F44" s="2" t="s">
         <v>90</v>
       </c>
       <c r="G44" t="s">
@@ -2224,6 +2217,23 @@
         <v>81</v>
       </c>
       <c r="J44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" ht="41.4" spans="3:10">
+      <c r="C45" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" t="s">
+        <v>92</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I45" t="s">
+        <v>81</v>
+      </c>
+      <c r="J45" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2233,6 +2243,7 @@
     <hyperlink ref="H27" r:id="rId1" display="ftp://10.20.55.69/&#10;账号：wenstu&#10;密码：123"/>
     <hyperlink ref="H33" r:id="rId1" display="ftp://10.20.55.69/&#10;账号：wenstu&#10;密码：123"/>
     <hyperlink ref="H40" r:id="rId1" display="ftp://10.20.55.69/&#10;账号：wenstu&#10;密码：123"/>
+    <hyperlink ref="H45" r:id="rId1" display="ftp://10.20.55.69/&#10;账号：wenstu&#10;密码：123"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/作业记录.xlsx
+++ b/作业记录.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DataCenter\school_project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D45947-2CD1-4AC9-92D7-64DF7550190C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9060"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -315,15 +321,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,337 +342,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -678,249 +364,10 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -929,66 +376,23 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1246,26 +650,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.3333333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.8333333333333" customWidth="1"/>
-    <col min="5" max="9" width="19.5833333333333" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="5" max="9" width="19.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1294,7 +698,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="3:10">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>9</v>
       </c>
@@ -1311,7 +715,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="3:10">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -1328,7 +732,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="3:10">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -1345,7 +749,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="3:10">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>21</v>
       </c>
@@ -1359,7 +763,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="3:10">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>23</v>
       </c>
@@ -1373,7 +777,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" ht="165.6" spans="3:10">
+    <row r="7" spans="2:11" ht="140" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>9</v>
       </c>
@@ -1393,7 +797,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>45559</v>
       </c>
@@ -1419,7 +823,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>45559</v>
       </c>
@@ -1442,7 +846,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>45559</v>
       </c>
@@ -1465,7 +869,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" ht="151.8" spans="2:10">
+    <row r="11" spans="2:11" ht="140" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>45559</v>
       </c>
@@ -1494,7 +898,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>45559</v>
       </c>
@@ -1517,7 +921,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>45559</v>
       </c>
@@ -1543,7 +947,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>45559</v>
       </c>
@@ -1572,7 +976,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" ht="55.2" spans="2:10">
+    <row r="15" spans="2:11" ht="56" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>45556</v>
       </c>
@@ -1595,7 +999,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" ht="69" spans="2:10">
+    <row r="16" spans="2:11" ht="56" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
         <v>45557</v>
       </c>
@@ -1618,7 +1022,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>45560</v>
       </c>
@@ -1641,7 +1045,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
         <v>45560</v>
       </c>
@@ -1664,7 +1068,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
         <v>45558</v>
       </c>
@@ -1690,7 +1094,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
         <v>45560</v>
       </c>
@@ -1716,7 +1120,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" ht="151.8" spans="2:10">
+    <row r="21" spans="2:10" ht="140" x14ac:dyDescent="0.3">
       <c r="B21" s="1">
         <v>45574</v>
       </c>
@@ -1739,7 +1143,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" ht="41.4" spans="2:10">
+    <row r="22" spans="2:10" ht="42" x14ac:dyDescent="0.3">
       <c r="B22" s="1">
         <v>45574</v>
       </c>
@@ -1762,7 +1166,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="1">
         <v>45573</v>
       </c>
@@ -1788,7 +1192,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="1">
         <v>45574</v>
       </c>
@@ -1811,7 +1215,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="1">
         <v>45574</v>
       </c>
@@ -1834,7 +1238,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" ht="165.6" spans="2:10">
+    <row r="26" spans="2:10" ht="140" x14ac:dyDescent="0.3">
       <c r="B26" s="1">
         <v>45577</v>
       </c>
@@ -1857,7 +1261,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" ht="41.4" spans="2:10">
+    <row r="27" spans="2:10" ht="42" x14ac:dyDescent="0.3">
       <c r="B27" s="1">
         <v>45580</v>
       </c>
@@ -1880,7 +1284,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="1">
         <v>45585</v>
       </c>
@@ -1909,7 +1313,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="1">
         <v>45587</v>
       </c>
@@ -1932,7 +1336,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="1">
         <v>45587</v>
       </c>
@@ -1958,7 +1362,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="1">
         <v>45587</v>
       </c>
@@ -1978,7 +1382,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" ht="151.8" spans="2:10">
+    <row r="32" spans="2:10" ht="140" x14ac:dyDescent="0.3">
       <c r="B32" s="1">
         <v>45588</v>
       </c>
@@ -1998,7 +1402,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" ht="41.4" spans="3:10">
+    <row r="33" spans="3:11" ht="42" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>14</v>
       </c>
@@ -2015,7 +1419,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="3:10">
+    <row r="34" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>49</v>
       </c>
@@ -2032,7 +1436,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="3:10">
+    <row r="35" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>23</v>
       </c>
@@ -2049,7 +1453,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" ht="27.6" spans="3:10">
+    <row r="36" spans="3:11" ht="28" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>9</v>
       </c>
@@ -2069,7 +1473,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" ht="27.6" spans="3:10">
+    <row r="37" spans="3:11" ht="28" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>9</v>
       </c>
@@ -2089,7 +1493,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" ht="27.6" spans="3:11">
+    <row r="38" spans="3:11" ht="28" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>9</v>
       </c>
@@ -2112,7 +1516,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="3:10">
+    <row r="39" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>21</v>
       </c>
@@ -2129,7 +1533,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" ht="41.4" spans="3:10">
+    <row r="40" spans="3:11" ht="42" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>14</v>
       </c>
@@ -2140,13 +1544,13 @@
         <v>62</v>
       </c>
       <c r="I40" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="J40" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="3:10">
+    <row r="41" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>18</v>
       </c>
@@ -2163,7 +1567,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="3:10">
+    <row r="42" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>18</v>
       </c>
@@ -2180,7 +1584,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" ht="165.6" spans="3:10">
+    <row r="43" spans="3:11" ht="140" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>9</v>
       </c>
@@ -2197,7 +1601,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" ht="27.6" spans="3:10">
+    <row r="44" spans="3:11" ht="28" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>23</v>
       </c>
@@ -2214,13 +1618,13 @@
         <v>56</v>
       </c>
       <c r="I44" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="J44" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="45" ht="41.4" spans="3:10">
+    <row r="45" spans="3:11" ht="42" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>14</v>
       </c>
@@ -2231,21 +1635,21 @@
         <v>62</v>
       </c>
       <c r="I45" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="J45" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H22" r:id="rId1" display="ftp://10.20.55.69/&#10;账号：wenstu&#10;密码：123"/>
-    <hyperlink ref="H27" r:id="rId1" display="ftp://10.20.55.69/&#10;账号：wenstu&#10;密码：123"/>
-    <hyperlink ref="H33" r:id="rId1" display="ftp://10.20.55.69/&#10;账号：wenstu&#10;密码：123"/>
-    <hyperlink ref="H40" r:id="rId1" display="ftp://10.20.55.69/&#10;账号：wenstu&#10;密码：123"/>
-    <hyperlink ref="H45" r:id="rId1" display="ftp://10.20.55.69/&#10;账号：wenstu&#10;密码：123"/>
+    <hyperlink ref="H22" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H27" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="H33" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="H40" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="H45" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/作业记录.xlsx
+++ b/作业记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DataCenter\school_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D45947-2CD1-4AC9-92D7-64DF7550190C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A77D91-C8F4-4A5F-9BF8-229A5AE52C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,24 +16,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="120">
   <si>
     <t>时间</t>
   </si>
@@ -282,40 +269,147 @@
     <t>第2次作业2</t>
   </si>
   <si>
+    <t>本子</t>
+  </si>
+  <si>
+    <t>第四次作业</t>
+  </si>
+  <si>
+    <t>实验04《CSS与DIV页面布局》</t>
+  </si>
+  <si>
+    <t>第7章预习</t>
+  </si>
+  <si>
+    <t>传智播客：https://stu.ityxb.com/</t>
+  </si>
+  <si>
+    <t>组合数据类型和函数作业</t>
+  </si>
+  <si>
+    <t>实验四-IP地址</t>
+  </si>
+  <si>
+    <t>问答思考题</t>
+  </si>
+  <si>
+    <t>11月9日前</t>
+  </si>
+  <si>
+    <t>书面作业3</t>
+  </si>
+  <si>
+    <t>学委-骆子乐，作业专用纸做完发到3022293204@qq.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P43页，问答思考题1-3、5-8、10-11，命名学号+姓名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>python程序设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>web</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验5《CSS与表格布局》</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>未完成</t>
-  </si>
-  <si>
-    <t>本子</t>
-  </si>
-  <si>
-    <t>第四次作业</t>
-  </si>
-  <si>
-    <t>实验04《CSS与DIV页面布局》</t>
-  </si>
-  <si>
-    <t>第7章预习</t>
-  </si>
-  <si>
-    <t>传智播客：https://stu.ityxb.com/</t>
-  </si>
-  <si>
-    <t>组合数据类型和函数作业</t>
-  </si>
-  <si>
-    <t>实验四-IP地址</t>
-  </si>
-  <si>
-    <t>问答思考题</t>
-  </si>
-  <si>
-    <t>P43页，问答思考题1-3、5-8、10-11</t>
-  </si>
-  <si>
-    <t>11月9日前</t>
-  </si>
-  <si>
-    <t>书面作业3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未提交</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据结构</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验四</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11月19日前</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>离散数学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五次作业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单片机原理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机网络</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验五</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验六</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ftp://10.20.52.126 账号密码 jknet，不超过两人一组，命名：学号姓名实验6</t>
+  </si>
+  <si>
+    <t>python程序设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数与文件作业</t>
+  </si>
+  <si>
+    <t>传智教辅平台</t>
+  </si>
+  <si>
+    <t>第8章预习</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>形势与政策</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一国两制测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>课堂派</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>党的二十届三中全会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五个实验报告</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超星学习通</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学委</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -325,7 +419,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,6 +441,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -356,7 +466,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -364,12 +474,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC4C4C4"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC4C4C4"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC4C4C4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC4C4C4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -380,6 +505,20 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -656,10 +795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:K45"/>
+  <dimension ref="B1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="I55" sqref="I55:J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -712,7 +851,7 @@
         <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
@@ -1507,13 +1646,13 @@
         <v>52</v>
       </c>
       <c r="I38" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38" t="s">
+        <v>17</v>
+      </c>
+      <c r="K38" t="s">
         <v>81</v>
-      </c>
-      <c r="J38" t="s">
-        <v>13</v>
-      </c>
-      <c r="K38" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="39" spans="3:11" x14ac:dyDescent="0.3">
@@ -1521,16 +1660,16 @@
         <v>21</v>
       </c>
       <c r="E39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H39" t="s">
         <v>56</v>
       </c>
       <c r="I39" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="J39" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="3:11" ht="42" x14ac:dyDescent="0.3">
@@ -1538,7 +1677,7 @@
         <v>14</v>
       </c>
       <c r="E40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>62</v>
@@ -1547,7 +1686,7 @@
         <v>12</v>
       </c>
       <c r="J40" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="3:11" x14ac:dyDescent="0.3">
@@ -1555,10 +1694,10 @@
         <v>18</v>
       </c>
       <c r="E41" t="s">
+        <v>84</v>
+      </c>
+      <c r="H41" t="s">
         <v>85</v>
-      </c>
-      <c r="H41" t="s">
-        <v>86</v>
       </c>
       <c r="I41" t="s">
         <v>12</v>
@@ -1572,10 +1711,10 @@
         <v>18</v>
       </c>
       <c r="E42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I42" t="s">
         <v>12</v>
@@ -1589,7 +1728,7 @@
         <v>9</v>
       </c>
       <c r="E43" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>26</v>
@@ -1601,27 +1740,27 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="3:11" ht="28" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:11" ht="42" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>23</v>
       </c>
       <c r="E44" t="s">
+        <v>88</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G44" t="s">
         <v>89</v>
       </c>
-      <c r="F44" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G44" t="s">
+      <c r="H44" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="H44" t="s">
-        <v>56</v>
-      </c>
       <c r="I44" t="s">
         <v>12</v>
       </c>
       <c r="J44" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="3:11" ht="42" x14ac:dyDescent="0.3">
@@ -1629,7 +1768,7 @@
         <v>14</v>
       </c>
       <c r="E45" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>62</v>
@@ -1638,6 +1777,221 @@
         <v>12</v>
       </c>
       <c r="J45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="3:11" ht="140" x14ac:dyDescent="0.3">
+      <c r="C46" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I46" t="s">
+        <v>12</v>
+      </c>
+      <c r="J46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="3:11" ht="42" x14ac:dyDescent="0.3">
+      <c r="C47" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C48" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="I48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C49" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G49" s="3">
+        <v>45616</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C50" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G50" s="3">
+        <v>45616</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="3:10" ht="62" x14ac:dyDescent="0.3">
+      <c r="C51" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G51" s="3">
+        <v>45610</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="3:10" ht="62" x14ac:dyDescent="0.3">
+      <c r="C52" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G52" s="3">
+        <v>45618</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="3:10" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="C53" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F53" s="8"/>
+      <c r="G53" s="3">
+        <v>45614</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="I53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J53" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="3:10" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="C54" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G54" s="3">
+        <v>45621</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="I54" t="s">
+        <v>12</v>
+      </c>
+      <c r="J54" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="3:10" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="C55" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G55" s="11">
+        <v>45615</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="I55" t="s">
+        <v>12</v>
+      </c>
+      <c r="J55" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="3:10" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="C56" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G56" s="11">
+        <v>45615</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="I56" t="s">
+        <v>12</v>
+      </c>
+      <c r="J56" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1649,6 +2003,7 @@
     <hyperlink ref="H33" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="H40" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="H45" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="H47" r:id="rId6" xr:uid="{2753FFFB-F175-4F99-A2A9-2793928DD051}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/作业记录.xlsx
+++ b/作业记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DataCenter\school_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A77D91-C8F4-4A5F-9BF8-229A5AE52C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0D5BCC-3593-4378-8925-8FA0BD68044A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="145">
   <si>
     <t>时间</t>
   </si>
@@ -409,6 +409,106 @@
   </si>
   <si>
     <t>学委</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>python程序设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将实验报告拷贝到学院ftp服务器的目录“python程序设计实验报告提交/第3次实验”对应班级里，地址：ftp://10.20.52.126，学生账号 xuwpstu1    密码 123456</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单片机原理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第6个实验报告</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据结构</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验五</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>python程序设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第9、10章预习</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习通</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验06-表单与数据收集</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据结构实训</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希表的设计与实现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机网络</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验七-TCP协议分析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>离散数学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第六次作业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单片机原理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>问答思考题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p114页，思考题2-5,8-9,12-13,16,18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子版发给学委，邮箱3022293204@qq.com，命名学号姓名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机网络</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四次作业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习通</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                                                </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -419,7 +519,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -452,6 +552,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -494,7 +602,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -519,6 +627,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -795,10 +904,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:K56"/>
+  <dimension ref="B1:K69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="I55" sqref="I55:J55"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="L63" sqref="L63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1807,11 +1916,11 @@
       <c r="H47" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="I47" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="J47" s="6" t="s">
-        <v>98</v>
+      <c r="I47" t="s">
+        <v>12</v>
+      </c>
+      <c r="J47" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="3:11" x14ac:dyDescent="0.3">
@@ -1847,11 +1956,11 @@
       <c r="H49" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="I49" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="J49" s="6" t="s">
-        <v>98</v>
+      <c r="I49" t="s">
+        <v>12</v>
+      </c>
+      <c r="J49" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="3:10" x14ac:dyDescent="0.3">
@@ -1867,11 +1976,11 @@
       <c r="H50" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="I50" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="J50" s="6" t="s">
-        <v>98</v>
+      <c r="I50" t="s">
+        <v>12</v>
+      </c>
+      <c r="J50" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="3:10" ht="62" x14ac:dyDescent="0.3">
@@ -1887,11 +1996,11 @@
       <c r="H51" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="I51" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="J51" s="6" t="s">
-        <v>98</v>
+      <c r="I51" t="s">
+        <v>12</v>
+      </c>
+      <c r="J51" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="3:10" ht="62" x14ac:dyDescent="0.3">
@@ -1907,11 +2016,11 @@
       <c r="H52" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="I52" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="J52" s="6" t="s">
-        <v>98</v>
+      <c r="I52" t="s">
+        <v>12</v>
+      </c>
+      <c r="J52" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="3:10" ht="15.5" x14ac:dyDescent="0.3">
@@ -1993,6 +2102,193 @@
       </c>
       <c r="J56" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="3:10" ht="112" x14ac:dyDescent="0.3">
+      <c r="C57" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="I57" t="s">
+        <v>12</v>
+      </c>
+      <c r="J57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C58" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G58" s="3">
+        <v>45630</v>
+      </c>
+      <c r="I58" t="s">
+        <v>12</v>
+      </c>
+      <c r="J58" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="3:10" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="C59" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G59" s="3">
+        <v>45629</v>
+      </c>
+      <c r="H59" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="I59" t="s">
+        <v>12</v>
+      </c>
+      <c r="J59" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C60" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G60" s="3">
+        <v>45642</v>
+      </c>
+      <c r="I60" t="s">
+        <v>12</v>
+      </c>
+      <c r="J60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C61" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G61" s="3">
+        <v>45630</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="J61" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C62" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G62" s="3">
+        <v>45646</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="J62" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C63" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G63" s="3">
+        <v>45641</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="J63" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C64" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G64" s="3">
+        <v>45630</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="J64" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C65" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G65" s="3">
+        <v>45632</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="I65" t="s">
+        <v>12</v>
+      </c>
+      <c r="J65" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C66" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G66" s="3">
+        <v>45639</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I66" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="J66" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C69" s="6" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
